--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1541893.064374088</v>
+        <v>1537587.347998017</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>322.8156897822619</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>201.890919777832</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.9272034736095</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>53.88251255924506</v>
       </c>
       <c r="I5" t="n">
-        <v>79.34811137171701</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>127.6114349298492</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>149.8668640145456</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>80.22559314076483</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>94.69465125051047</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>107.209012168467</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>33.55293486399881</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>125.2700607443043</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>112.5005260950196</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.1669704749679</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>59.44001103519461</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>260.4394343112825</v>
       </c>
       <c r="V31" t="n">
-        <v>57.82449082152367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>98.79136808967674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>98.72106119200248</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>252.1248285323199</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,10 +3559,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>245.879692121443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.69211367164815</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.546482223453</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830418</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1359.546482223453</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1359.546482223453</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2180.667293341392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2180.667293341392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.840903686824</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>2180.667293341392</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>2180.667293341392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>2180.667293341392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2180.667293341392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2180.667293341392</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1271.984870679801</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="C5" t="n">
-        <v>1271.984870679801</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="D5" t="n">
-        <v>1271.984870679801</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="E5" t="n">
-        <v>886.1966180815571</v>
+        <v>533.2790710342549</v>
       </c>
       <c r="F5" t="n">
-        <v>475.2107132919495</v>
+        <v>122.2931662446474</v>
       </c>
       <c r="G5" t="n">
-        <v>461.2873092305404</v>
+        <v>108.3697621832383</v>
       </c>
       <c r="H5" t="n">
-        <v>134.0925892665433</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1271.984870679801</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447962</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1723320447962</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>319.1723320447962</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1306.645299038032</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="C8" t="n">
-        <v>937.6827820976202</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="D8" t="n">
-        <v>579.4170834908698</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="E8" t="n">
-        <v>193.6288308926256</v>
+        <v>629.3569350549037</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>218.3710302652962</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>205.3236525421277</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>661.4897982516954</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2151.286341942363</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.250389274924</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1696.784631013844</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1306.645299038032</v>
+        <v>1015.145187653148</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1028.225718003799</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C9" t="n">
-        <v>853.7726887226717</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D9" t="n">
-        <v>704.8382790614204</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>545.6008240559649</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>399.0662660828499</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>261.6248684420718</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>160.7088905868764</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>114.8040335771929</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>233.4632854340886</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>562.8916897398984</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>700.1212877555924</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>879.6186241101973</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1547.163024137207</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.59903288993</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2466.435634957755</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R9" t="n">
-        <v>2676.037191420409</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S9" t="n">
-        <v>2526.570402283044</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T9" t="n">
-        <v>2329.581106443132</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U9" t="n">
-        <v>2101.442318954298</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V9" t="n">
-        <v>1866.290210722555</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W9" t="n">
-        <v>1612.052853994353</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X9" t="n">
-        <v>1404.201353788821</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y9" t="n">
-        <v>1196.441055023867</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>490.3302205638821</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="C10" t="n">
-        <v>394.6790576845786</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="D10" t="n">
-        <v>394.6790576845786</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E10" t="n">
-        <v>394.6790576845786</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F10" t="n">
-        <v>394.6790576845786</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>945.5857317964092</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>738.1454470488146</v>
       </c>
       <c r="T10" t="n">
-        <v>490.3302205638821</v>
+        <v>738.1454470488146</v>
       </c>
       <c r="U10" t="n">
-        <v>490.3302205638821</v>
+        <v>738.1454470488146</v>
       </c>
       <c r="V10" t="n">
-        <v>490.3302205638821</v>
+        <v>738.1454470488146</v>
       </c>
       <c r="W10" t="n">
-        <v>490.3302205638821</v>
+        <v>738.1454470488146</v>
       </c>
       <c r="X10" t="n">
-        <v>490.3302205638821</v>
+        <v>738.1454470488146</v>
       </c>
       <c r="Y10" t="n">
-        <v>490.3302205638821</v>
+        <v>517.3528679052845</v>
       </c>
     </row>
     <row r="11">
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859342</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2418223735984</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3287287912053</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4387812932949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>302.4387812932949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>748.5648313007904</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>598.4481918884546</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3053.935450426146</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>2884.99926749824</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2734.882628085904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6311,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2940.5785039035</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2771.642320975594</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2621.525681563258</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2621.525681563258</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,16 +6545,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V31" t="n">
-        <v>1849.578742244367</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W31" t="n">
-        <v>1560.161572207407</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X31" t="n">
-        <v>1332.172021309389</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165859</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W34" t="n">
-        <v>1333.912104952176</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C37" t="n">
-        <v>734.6461798836013</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D37" t="n">
-        <v>584.5295404712656</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="38">
@@ -7168,43 +7168,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>368.1017737596991</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>312.5708431852133</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>263.7848227682077</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.031718488096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>15.0246521019196</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>33.93343655154955</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.66500970696943</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>85.98103698773664</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
       <c r="V31" t="n">
-        <v>194.3131525023043</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>47.71290145456669</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>34.39816980427108</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>6.257951202384959</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26456,10 +26456,10 @@
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758104</v>
+        <v>-369598.2665758105</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387343</v>
+        <v>220369.6126387344</v>
       </c>
       <c r="D6" t="n">
-        <v>64565.80654493909</v>
+        <v>64565.80654493911</v>
       </c>
       <c r="E6" t="n">
-        <v>-373386.1329651425</v>
+        <v>-373733.5122194997</v>
       </c>
       <c r="F6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="G6" t="n">
-        <v>397666.5584156639</v>
+        <v>397319.1791613067</v>
       </c>
       <c r="H6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="I6" t="n">
-        <v>397666.5584156639</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="J6" t="n">
-        <v>221243.3392230709</v>
+        <v>220895.9599687138</v>
       </c>
       <c r="K6" t="n">
-        <v>397666.5584156639</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="L6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="M6" t="n">
-        <v>273458.0477076054</v>
+        <v>273110.6684532485</v>
       </c>
       <c r="N6" t="n">
-        <v>397666.5584156639</v>
+        <v>397319.1791613068</v>
       </c>
       <c r="O6" t="n">
-        <v>397666.558415664</v>
+        <v>397319.1791613069</v>
       </c>
       <c r="P6" t="n">
-        <v>397666.5584156638</v>
+        <v>397319.1791613069</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>84.06035595944951</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>167.840180900637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>37.68826954460282</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>197.662087304794</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>270.0402602051121</v>
       </c>
       <c r="I5" t="n">
-        <v>72.58320487314424</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.82252771671997</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>165.17402006067</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>269.0153755766482</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>72.55216984811736</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.96416949932431</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>653.3850396373771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>671.2522281007818</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>508.837789760965</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35254,22 +35254,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>493.8812839474404</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>373.5723253210348</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36138,13 +36138,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>510.7887951929326</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>528.6559836563374</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1537587.347998017</v>
+        <v>1539347.878300802</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>322.8156897822619</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>237.574205432143</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>54.47555601903397</v>
+        <v>110.9272034736103</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>53.88251255924506</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.98934863366319</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>296.2156903566496</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>149.8668640145456</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.209012168467</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>75.55208621972906</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>117.6449484365341</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>58.24570521548653</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>56.04917322725603</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>260.4394343112825</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>22.10695458833897</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>252.1248285323199</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="D2" t="n">
-        <v>951.4492202526051</v>
+        <v>1167.311376017672</v>
       </c>
       <c r="E2" t="n">
-        <v>951.4492202526051</v>
+        <v>781.523123419428</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>774.5776226702245</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,7 +4412,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.0673236324992</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C5" t="n">
-        <v>919.0673236324992</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>919.0673236324992</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>533.2790710342549</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>122.2931662446474</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>108.3697621832383</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.806495672433</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y5" t="n">
-        <v>1305.667163696621</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,37 +4658,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1015.145187653148</v>
+        <v>1229.945049385437</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.145187653148</v>
+        <v>1229.945049385437</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.145187653148</v>
+        <v>871.6793507786863</v>
       </c>
       <c r="E8" t="n">
-        <v>629.3569350549037</v>
+        <v>485.891098180442</v>
       </c>
       <c r="F8" t="n">
-        <v>218.3710302652962</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>205.3236525421277</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4834,22 +4834,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.610945914228</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="X8" t="n">
-        <v>1015.145187653148</v>
+        <v>1229.945049385437</v>
       </c>
       <c r="Y8" t="n">
-        <v>1015.145187653148</v>
+        <v>1229.945049385437</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>744.5715932067358</v>
+        <v>829.2828935107518</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1469.828242977856</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>2137.372643004866</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.3528679052845</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>517.3528679052845</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.3528679052845</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.4397743228914</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>945.5857317964092</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>738.1454470488146</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>738.1454470488146</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>738.1454470488146</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>738.1454470488146</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>738.1454470488146</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>738.1454470488146</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.3528679052845</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367892</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2078.229264238543</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.154037582741</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1534.469549376854</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1245.052379339893</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5664,61 +5664,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,10 +6214,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>615.644930552589</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2424.632826420322</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2241.777992075226</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W37" t="n">
-        <v>1246.075525424376</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X37" t="n">
-        <v>1018.085974526359</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y37" t="n">
-        <v>797.2933953828287</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7830,13 +7830,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>311.7999084534177</v>
       </c>
       <c r="M9" t="n">
-        <v>312.5708431852133</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>70.88187642684011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>99.76050189075414</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>111.1976478713718</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>44.26829212178271</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>34.39816980427108</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713555</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713558</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062535</v>
-      </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062537</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758105</v>
+        <v>-369598.2665758103</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387344</v>
+        <v>220369.6126387342</v>
       </c>
       <c r="D6" t="n">
-        <v>64565.80654493911</v>
+        <v>64565.80654493923</v>
       </c>
       <c r="E6" t="n">
-        <v>-373733.5122194997</v>
+        <v>-373420.8708905785</v>
       </c>
       <c r="F6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="G6" t="n">
-        <v>397319.1791613067</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="H6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="I6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.8204902282</v>
       </c>
       <c r="J6" t="n">
-        <v>220895.9599687138</v>
+        <v>221208.6012976352</v>
       </c>
       <c r="K6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="L6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.820490228</v>
       </c>
       <c r="M6" t="n">
-        <v>273110.6684532485</v>
+        <v>273423.3097821695</v>
       </c>
       <c r="N6" t="n">
-        <v>397319.1791613068</v>
+        <v>397631.820490228</v>
       </c>
       <c r="O6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="P6" t="n">
-        <v>397319.1791613069</v>
+        <v>397631.8204902282</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26798,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.06035595944951</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>176.209964588652</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>197.662087304794</v>
+        <v>141.2104398502177</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>270.0402602051121</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>42.48905394114851</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>110.6603553850618</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>165.17402006067</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.96416949932431</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860882997</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34780,10 +34780,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>450.4156640248257</v>
       </c>
       <c r="M9" t="n">
-        <v>493.8812839474404</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496642</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
